--- a/outputs/mod_2.xlsx
+++ b/outputs/mod_2.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-7.722123953134465</v>
+        <v>-4.513230038163786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1105254802447831</v>
+        <v>0.08728896464059555</v>
       </c>
       <c r="F2" t="n">
-        <v>-69.86736394207124</v>
+        <v>-51.70447440574652</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.339078707407959</v>
+        <v>3.373590079863296</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06813931781613435</v>
+        <v>0.02353211158061206</v>
       </c>
       <c r="F3" t="n">
-        <v>93.0311442875491</v>
+        <v>143.3611288263129</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-4.839659605063125</v>
+        <v>-1.715378251474444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06742279516822115</v>
+        <v>0.03851257269516586</v>
       </c>
       <c r="F4" t="n">
-        <v>-71.78076187716755</v>
+        <v>-44.54073388064671</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6203119216366625</v>
+        <v>-0.9378839996421813</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1805015470769608</v>
+        <v>0.05167146712598628</v>
       </c>
       <c r="F5" t="n">
-        <v>3.436601689470168</v>
+        <v>-18.15090710227786</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-14.32917344695497</v>
+        <v>-7.680937129172325</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05180376933731041</v>
+        <v>0.05725245917545222</v>
       </c>
       <c r="F6" t="n">
-        <v>-276.6048422780449</v>
+        <v>-134.1590778770536</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-3.558898731138838</v>
+        <v>-2.058122495831918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06283177349712697</v>
+        <v>0.02625722839548167</v>
       </c>
       <c r="F7" t="n">
-        <v>-56.64170423745196</v>
+        <v>-78.38308235861173</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-16.27560100597951</v>
+        <v>-11.99433012348917</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2260028017186602</v>
+        <v>0.02171416194104408</v>
       </c>
       <c r="F8" t="n">
-        <v>-72.01504088537898</v>
+        <v>-552.3736147890422</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-15.28815172365218</v>
+        <v>-9.112020206883164</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05346684819002556</v>
+        <v>0.07497720920522358</v>
       </c>
       <c r="F9" t="n">
-        <v>-285.9370290411891</v>
+        <v>-121.5305331243023</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -714,13 +714,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.561343944863124</v>
+        <v>3.127873097193142</v>
       </c>
       <c r="E10" t="n">
-        <v>0.305589470566916</v>
+        <v>0.1477372166871506</v>
       </c>
       <c r="F10" t="n">
-        <v>11.65401392350423</v>
+        <v>21.1718696705702</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.410565080114109</v>
+        <v>0.9693754395990923</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2293505731580525</v>
+        <v>0.09894280379751771</v>
       </c>
       <c r="F11" t="n">
-        <v>14.87053218639128</v>
+        <v>9.797331411619165</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-50.4999806001392</v>
+        <v>-80.34122736204627</v>
       </c>
       <c r="E12" t="n">
-        <v>0.979926923063161</v>
+        <v>0.5247902635980159</v>
       </c>
       <c r="F12" t="n">
-        <v>-51.53443528450155</v>
+        <v>-153.0920692225091</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-6.884671359586877</v>
+        <v>-3.15711569301447</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3125911902874091</v>
+        <v>0.02674501862517062</v>
       </c>
       <c r="F13" t="n">
-        <v>-22.02452139888149</v>
+        <v>-118.0449988560937</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.973329230182244</v>
+        <v>1.177056259153892</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3772613548491586</v>
+        <v>0.2277808542559587</v>
       </c>
       <c r="F14" t="n">
-        <v>5.230668884628392</v>
+        <v>5.167494269870579</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5.980366834309484</v>
+        <v>3.176492046312543</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06654607111241888</v>
+        <v>0.08084719893618794</v>
       </c>
       <c r="F15" t="n">
-        <v>89.86806785642712</v>
+        <v>39.29006926782613</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -888,19 +888,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.502893290204579</v>
+        <v>-0.1469823936019788</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2020460757955275</v>
+        <v>0.202281362124519</v>
       </c>
       <c r="F16" t="n">
-        <v>7.438369115990753</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.7266235112234428</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -917,13 +913,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-8.076713774420231</v>
+        <v>-0.721758151965192</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3228275758485642</v>
+        <v>0.255883046251517</v>
       </c>
       <c r="F17" t="n">
-        <v>-25.01866128750089</v>
+        <v>-2.820656399626214</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -946,15 +942,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.421417473227356</v>
+        <v>-1.062449416326547</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6898607056518578</v>
+        <v>0.3334382180658457</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6108732817723739</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>-3.186345651945453</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-5.488443723163923</v>
+        <v>6.831703086017288</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1881949091582298</v>
+        <v>0.03437123168546543</v>
       </c>
       <c r="F19" t="n">
-        <v>-29.16361418974075</v>
+        <v>198.7622424629668</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-4.029061957708152</v>
+        <v>-3.822359229860201</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3187490560010684</v>
+        <v>0.02291658075348804</v>
       </c>
       <c r="F20" t="n">
-        <v>-12.64023181199522</v>
+        <v>-166.794482605282</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1029,13 +1029,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7.037252560865592</v>
+        <v>7.048757502247799</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3759832174408688</v>
+        <v>0.185161800317722</v>
       </c>
       <c r="F21" t="n">
-        <v>18.71693265663473</v>
+        <v>38.06809768620055</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1058,13 +1058,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-3.3745704412922</v>
+        <v>2.238101690852167</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3016733464051002</v>
+        <v>0.4987626983068664</v>
       </c>
       <c r="F22" t="n">
-        <v>-11.18617365937486</v>
+        <v>4.487307688505533</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1087,15 +1087,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02292841096654879</v>
+        <v>0.2488412905035065</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1362176309192213</v>
+        <v>0.096119555316033</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1683219037933908</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>2.588872677212637</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1163,13 +1167,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-9.696553342477035</v>
+        <v>-19.24839338604749</v>
       </c>
       <c r="E2" t="n">
-        <v>121.7725523765521</v>
+        <v>255.4600832845937</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07962839862707972</v>
+        <v>-0.07534794923167676</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1188,13 +1192,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.409534917300346</v>
+        <v>21.85518837347206</v>
       </c>
       <c r="E3" t="n">
-        <v>27.68507209462179</v>
+        <v>314.2452700056139</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2315159193154309</v>
+        <v>0.06954818563563939</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1213,13 +1217,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-6.86354117063549</v>
+        <v>-23.90731385095948</v>
       </c>
       <c r="E4" t="n">
-        <v>102.4880947041298</v>
+        <v>343.4529989880829</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06696915569022593</v>
+        <v>-0.06960869149897569</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -1238,13 +1242,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.05147147657715889</v>
+        <v>-0.9780456636835116</v>
       </c>
       <c r="E5" t="n">
-        <v>49.94982607711254</v>
+        <v>58.78877810987745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001030463579546748</v>
+        <v>-0.01663660472506375</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1263,13 +1267,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-16.23779950625821</v>
+        <v>-47.83782891129453</v>
       </c>
       <c r="E6" t="n">
-        <v>97.06868689237147</v>
+        <v>235.4671132471947</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1672815407945352</v>
+        <v>-0.2031614022509976</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1288,13 +1292,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-4.081967080377118</v>
+        <v>-16.12492755023208</v>
       </c>
       <c r="E7" t="n">
-        <v>55.20235046865599</v>
+        <v>147.6200893111959</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07394553032112042</v>
+        <v>-0.1092326093655135</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1313,13 +1317,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-17.43091132003126</v>
+        <v>-51.49469345640384</v>
       </c>
       <c r="E8" t="n">
-        <v>111.6269800371843</v>
+        <v>67.44913102706379</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1561532105788835</v>
+        <v>-0.7634597017379177</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1338,15 +1342,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-17.69242722583745</v>
+        <v>-53.80262213920951</v>
       </c>
       <c r="E9" t="n">
-        <v>141.371375744656</v>
+        <v>7.115836265512068</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1251485821132093</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-7.560969664236334</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1363,13 +1371,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.91128886399181</v>
+        <v>25.41692095811637</v>
       </c>
       <c r="E10" t="n">
-        <v>91.10320309848517</v>
+        <v>277.4510857066604</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05390906902233247</v>
+        <v>0.09160865560637532</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1388,13 +1396,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.221528146730419</v>
+        <v>15.91065585952858</v>
       </c>
       <c r="E11" t="n">
-        <v>67.31593481900137</v>
+        <v>146.8357383914307</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06271216700891453</v>
+        <v>0.1083568348811267</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1413,13 +1421,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-45.47627429625182</v>
+        <v>-101.4953633188836</v>
       </c>
       <c r="E12" t="n">
-        <v>200.2397521771599</v>
+        <v>321.6871007617783</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2271091219490583</v>
+        <v>-0.3155095839358658</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1438,13 +1446,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-9.798653848417775</v>
+        <v>-18.26077946232793</v>
       </c>
       <c r="E13" t="n">
-        <v>155.8122216113669</v>
+        <v>935.806007371027</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06288758190521135</v>
+        <v>-0.01951342406278006</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1463,13 +1471,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6101597051602926</v>
+        <v>9.246643505082085</v>
       </c>
       <c r="E14" t="n">
-        <v>63.83894842768552</v>
+        <v>314.8839496949434</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009557796927865436</v>
+        <v>0.0293652423822813</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1488,13 +1496,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5.276441799975506</v>
+        <v>10.69373933841654</v>
       </c>
       <c r="E15" t="n">
-        <v>27.44615862211249</v>
+        <v>301.0723674730415</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1922470052229621</v>
+        <v>0.03551883365508153</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1513,13 +1521,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3372250997637935</v>
+        <v>5.898228994357018</v>
       </c>
       <c r="E16" t="n">
-        <v>91.13627344485165</v>
+        <v>32.95759042103037</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003700229195435065</v>
+        <v>0.1789642057871238</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1538,13 +1546,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-8.383257415255637</v>
+        <v>-13.52866813986298</v>
       </c>
       <c r="E17" t="n">
-        <v>41.08899931948658</v>
+        <v>292.1216431672495</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2040268089780384</v>
+        <v>-0.04631176243287584</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1563,13 +1571,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-2.209138527026352</v>
+        <v>-2.488490355455598</v>
       </c>
       <c r="E18" t="n">
-        <v>162.4396923638144</v>
+        <v>718.5533025818635</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01359974581876558</v>
+        <v>-0.003463195209755631</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1588,13 +1596,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-4.907923781580544</v>
+        <v>-1.223048546127743</v>
       </c>
       <c r="E19" t="n">
-        <v>37.23039223899222</v>
+        <v>290.7934902946293</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1318257339346634</v>
+        <v>-0.004205900705990914</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1613,13 +1621,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-7.722800541553447</v>
+        <v>-37.20499673702589</v>
       </c>
       <c r="E20" t="n">
-        <v>115.1982676337454</v>
+        <v>433.9510287589944</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0670392072744259</v>
+        <v>-0.08573547306345626</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1638,13 +1646,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7.614214807663044</v>
+        <v>30.4028447009938</v>
       </c>
       <c r="E21" t="n">
-        <v>20.79781842047784</v>
+        <v>408.5101028340777</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3661064181696084</v>
+        <v>0.0744237278100864</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1663,13 +1671,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-2.108835074262456</v>
+        <v>13.67016760718114</v>
       </c>
       <c r="E22" t="n">
-        <v>28.75413801368586</v>
+        <v>946.7829242215388</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07334022926574017</v>
+        <v>0.0144385447365572</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1688,13 +1696,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9870287058831048</v>
+        <v>-1.143734665902526</v>
       </c>
       <c r="E23" t="n">
-        <v>9.151680830964795</v>
+        <v>96.98334923246664</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1078521775522901</v>
+        <v>-0.01179310340335868</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1782,34 +1790,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.695764121059836</v>
+        <v>-6.80145968941793</v>
       </c>
       <c r="D2" t="n">
-        <v>2.610011597004478</v>
+        <v>3.385877753704874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02319544528681403</v>
+        <v>0.1233171808336947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5242518522843453</v>
+        <v>0.521388533150416</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0606040052065416</v>
+        <v>0.2773278023310828</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6470820407797289</v>
+        <v>1.268341775647306</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03872462460459054</v>
+        <v>0.08257260375036808</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6100968167438731</v>
+        <v>0.9764939903042644</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002900869030132106</v>
+        <v>0.06628435514364962</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1815698504588831</v>
+        <v>0.262908973374664</v>
       </c>
     </row>
     <row r="3">
@@ -1820,34 +1828,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7801698060860403</v>
+        <v>1.027077896335243</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.576373037997403</v>
+        <v>-3.248943188026836</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01433565648764475</v>
+        <v>0.04930610906890424</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3419141586085337</v>
+        <v>0.4272150752822428</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06019429548194312</v>
+        <v>0.1643628113972125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6371292033376055</v>
+        <v>0.681557320465794</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01292591055666603</v>
+        <v>0.06507149096757403</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6431957119802435</v>
+        <v>0.7377130259916301</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001619023147278144</v>
+        <v>0.03249000906682634</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08483530907469021</v>
+        <v>0.2001683682936505</v>
       </c>
     </row>
     <row r="4">
@@ -1858,34 +1866,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.564966527771862</v>
+        <v>4.507584679410749</v>
       </c>
       <c r="D4" t="n">
-        <v>3.484912612843279</v>
+        <v>5.941401882945912</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.09230028059661</v>
+        <v>-32.96617937607951</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3890680609472881</v>
+        <v>3.479403953543899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.264199170036835</v>
+        <v>4.213279023381082</v>
       </c>
       <c r="H4" t="n">
-        <v>1.359803207225713</v>
+        <v>3.684830282321145</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1232563267084134</v>
+        <v>2.393122542899437</v>
       </c>
       <c r="J4" t="n">
-        <v>1.417049284086284</v>
+        <v>2.673276108668302</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04152931930839403</v>
+        <v>1.765929397163644</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4519923821580341</v>
+        <v>1.79272989731642</v>
       </c>
     </row>
     <row r="5">
@@ -1896,34 +1904,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.458909950757559</v>
+        <v>1.362624806666713</v>
       </c>
       <c r="D5" t="n">
-        <v>3.179540787421814</v>
+        <v>3.680690293929686</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005241621700568647</v>
+        <v>0.2487707764718496</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.600751896064038</v>
+        <v>-9.732327118611117</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08721678314986935</v>
+        <v>0.3817303250197221</v>
       </c>
       <c r="H5" t="n">
-        <v>0.809567961743563</v>
+        <v>1.686314284154393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03547886985381547</v>
+        <v>0.2528313841443401</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6655456642660499</v>
+        <v>1.531921749278427</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0005590722397485633</v>
+        <v>0.188989940884774</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3588739760357942</v>
+        <v>0.6466372807470631</v>
       </c>
     </row>
     <row r="6">
@@ -1934,34 +1942,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.476931561105716</v>
+        <v>2.521655322770771</v>
       </c>
       <c r="D6" t="n">
-        <v>4.782689600639325</v>
+        <v>4.926786764485637</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02988779823789709</v>
+        <v>1.048074678454061</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7625752485224851</v>
+        <v>1.328110347607805</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.22707351750677</v>
+        <v>-15.8686206600954</v>
       </c>
       <c r="H6" t="n">
-        <v>1.290905836430937</v>
+        <v>1.614490158587763</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1718434281692424</v>
+        <v>0.556830564088025</v>
       </c>
       <c r="J6" t="n">
-        <v>1.561614352638969</v>
+        <v>1.668780444568339</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002645726507905064</v>
+        <v>0.4907324051857581</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1483853693737995</v>
+        <v>0.7051924103023394</v>
       </c>
     </row>
     <row r="7">
@@ -1972,34 +1980,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.166759648708732</v>
+        <v>1.749007040851829</v>
       </c>
       <c r="D7" t="n">
-        <v>3.856789772626186</v>
+        <v>3.098314778430554</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01902751992357451</v>
+        <v>0.1390120487418915</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5235040628804435</v>
+        <v>0.8897724691840221</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09450115112406381</v>
+        <v>0.2448490080353908</v>
       </c>
       <c r="H7" t="n">
-        <v>-7.064699725030192</v>
+        <v>-9.039718420546455</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0268170782826943</v>
+        <v>0.1551445968824474</v>
       </c>
       <c r="J7" t="n">
-        <v>1.212833058309491</v>
+        <v>1.195059440860454</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002995725201407006</v>
+        <v>0.09195560646437664</v>
       </c>
       <c r="L7" t="n">
-        <v>0.161061173761657</v>
+        <v>0.4626337859000305</v>
       </c>
     </row>
     <row r="8">
@@ -2010,34 +2018,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.054296460741567</v>
+        <v>2.653611596408269</v>
       </c>
       <c r="D8" t="n">
-        <v>2.301371313036607</v>
+        <v>6.893821368191414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08740386235187549</v>
+        <v>2.104001322335326</v>
       </c>
       <c r="F8" t="n">
-        <v>1.086756539669608</v>
+        <v>3.108977247863688</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6313484158970066</v>
+        <v>1.968031877266824</v>
       </c>
       <c r="H8" t="n">
-        <v>1.329070924243455</v>
+        <v>3.615619930409436</v>
       </c>
       <c r="I8" t="n">
-        <v>-10.27437425484676</v>
+        <v>-32.43745247633726</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1108751161537</v>
+        <v>3.991569965650621</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01286582440842614</v>
+        <v>1.533704115613223</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6630433222545299</v>
+        <v>2.458178656959681</v>
       </c>
     </row>
     <row r="9">
@@ -2048,34 +2056,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8610318485337907</v>
+        <v>1.484551795393164</v>
       </c>
       <c r="D9" t="n">
-        <v>3.031288012801496</v>
+        <v>3.697269624271357</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0169778201753094</v>
+        <v>0.1111857910796091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3373463086357675</v>
+        <v>0.8911433001102285</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0911815974984008</v>
+        <v>0.2790182868116648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9492123432226642</v>
+        <v>1.317528523678067</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01806337660680895</v>
+        <v>0.1888287633029031</v>
       </c>
       <c r="J9" t="n">
-        <v>-5.567861190344434</v>
+        <v>-8.251534792330911</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001577097412094597</v>
+        <v>0.09964338083301287</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2627370452189978</v>
+        <v>0.4639047235711647</v>
       </c>
     </row>
     <row r="10">
@@ -2086,34 +2094,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1.09091526327599</v>
+        <v>6.645168336997372</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.189746306794579</v>
+        <v>10.73773483820712</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2465586894458209</v>
+        <v>4.843373724484188</v>
       </c>
       <c r="F10" t="n">
-        <v>0.818931793729016</v>
+        <v>7.249679798328283</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5931342079916385</v>
+        <v>5.410624254119163</v>
       </c>
       <c r="H10" t="n">
-        <v>1.643363259437733</v>
+        <v>6.685253866666145</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1897864960091702</v>
+        <v>4.784484560588228</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8802376393549076</v>
+        <v>6.570790585737295</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.626232680423652</v>
+        <v>-60.6501055535936</v>
       </c>
       <c r="L10" t="n">
-        <v>0.368832822990093</v>
+        <v>4.295765588221689</v>
       </c>
     </row>
     <row r="11">
@@ -2124,34 +2132,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1.813840526044969</v>
+        <v>1.964259060757683</v>
       </c>
       <c r="D11" t="n">
-        <v>2.729179826184866</v>
+        <v>4.930110982397275</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03831350677409334</v>
+        <v>0.3664273743899298</v>
       </c>
       <c r="F11" t="n">
-        <v>1.288573248999606</v>
+        <v>1.848584383283125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06862087786752842</v>
+        <v>0.5794402659735444</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9066179670856567</v>
+        <v>2.506544625770668</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08260188810048115</v>
+        <v>0.5714857719253771</v>
       </c>
       <c r="J11" t="n">
-        <v>1.855841103358599</v>
+        <v>2.279798012561749</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001044219539852342</v>
+        <v>0.3201392911667539</v>
       </c>
       <c r="L11" t="n">
-        <v>-8.784290885507785</v>
+        <v>-14.96304873181055</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/mod_2.xlsx
+++ b/outputs/mod_2.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-4.513230038163786</v>
+        <v>-7.410133835351444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08728896464059555</v>
+        <v>0.05669268794406226</v>
       </c>
       <c r="F2" t="n">
-        <v>-51.70447440574652</v>
+        <v>-130.7070471356535</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.373590079863296</v>
+        <v>5.522481033407925</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02353211158061206</v>
+        <v>0.09568891797081509</v>
       </c>
       <c r="F3" t="n">
-        <v>143.3611288263129</v>
+        <v>57.71285902817158</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1.715378251474444</v>
+        <v>-31.93040758459922</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03851257269516586</v>
+        <v>0.01390935236333724</v>
       </c>
       <c r="F4" t="n">
-        <v>-44.54073388064671</v>
+        <v>-2295.607067138691</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.9378839996421813</v>
+        <v>-0.2678727652113896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05167146712598628</v>
+        <v>0.03706976754903968</v>
       </c>
       <c r="F5" t="n">
-        <v>-18.15090710227786</v>
+        <v>-7.22617871442059</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-7.680937129172325</v>
+        <v>-48.2527360037317</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05725245917545222</v>
+        <v>0.0487054414418146</v>
       </c>
       <c r="F6" t="n">
-        <v>-134.1590778770536</v>
+        <v>-990.7052389901091</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-2.058122495831918</v>
+        <v>-39.03270040349994</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02625722839548167</v>
+        <v>0.03178914225172061</v>
       </c>
       <c r="F7" t="n">
-        <v>-78.38308235861173</v>
+        <v>-1227.862648649706</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-11.99433012348917</v>
+        <v>-15.55411457371205</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02171416194104408</v>
+        <v>0.02453630318903214</v>
       </c>
       <c r="F8" t="n">
-        <v>-552.3736147890422</v>
+        <v>-633.9224965505325</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-9.112020206883164</v>
+        <v>-15.44850011709141</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07497720920522358</v>
+        <v>0.07034045350009829</v>
       </c>
       <c r="F9" t="n">
-        <v>-121.5305331243023</v>
+        <v>-219.6246874790169</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -714,13 +714,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.127873097193142</v>
+        <v>2.811250998884823</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1477372166871506</v>
+        <v>0.09927895763383229</v>
       </c>
       <c r="F10" t="n">
-        <v>21.1718696705702</v>
+        <v>28.31668528645796</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9693754395990923</v>
+        <v>2.971678192912515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09894280379751771</v>
+        <v>0.1626434466364324</v>
       </c>
       <c r="F11" t="n">
-        <v>9.797331411619165</v>
+        <v>18.27112161214404</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-80.34122736204627</v>
+        <v>-112.4916808172291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5247902635980159</v>
+        <v>0.5066217867623483</v>
       </c>
       <c r="F12" t="n">
-        <v>-153.0920692225091</v>
+        <v>-222.0427225132304</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-3.15711569301447</v>
+        <v>8.07510503865557</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02674501862517062</v>
+        <v>0.05048749859483302</v>
       </c>
       <c r="F13" t="n">
-        <v>-118.0449988560937</v>
+        <v>159.9426642911953</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.177056259153892</v>
+        <v>-2.048050981401614</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2277808542559587</v>
+        <v>0.2762877021062611</v>
       </c>
       <c r="F14" t="n">
-        <v>5.167494269870579</v>
+        <v>-7.412747530159439</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.176492046312543</v>
+        <v>-4.456434506750285</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08084719893618794</v>
+        <v>0.05597379918884394</v>
       </c>
       <c r="F15" t="n">
-        <v>39.29006926782613</v>
+        <v>-79.61643789293636</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -888,15 +888,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.1469823936019788</v>
+        <v>-3.164899632515329</v>
       </c>
       <c r="E16" t="n">
-        <v>0.202281362124519</v>
+        <v>0.1173757718910603</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7266235112234428</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>-26.963823807291</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -913,13 +917,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.721758151965192</v>
+        <v>3.015665378660576</v>
       </c>
       <c r="E17" t="n">
-        <v>0.255883046251517</v>
+        <v>0.1838645792804368</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.820656399626214</v>
+        <v>16.40155700713282</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -942,13 +946,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-1.062449416326547</v>
+        <v>-1.315041692849873</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3334382180658457</v>
+        <v>0.1789918382791583</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.186345651945453</v>
+        <v>-7.346936628467462</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -971,13 +975,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.831703086017288</v>
+        <v>1.309948681564679</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03437123168546543</v>
+        <v>0.1367508046133735</v>
       </c>
       <c r="F19" t="n">
-        <v>198.7622424629668</v>
+        <v>9.579093046422727</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1000,13 +1004,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-3.822359229860201</v>
+        <v>5.08787288770462</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02291658075348804</v>
+        <v>0.2751183229265548</v>
       </c>
       <c r="F20" t="n">
-        <v>-166.794482605282</v>
+        <v>18.49339888954932</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1029,13 +1033,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7.048757502247799</v>
+        <v>-6.309057967045765</v>
       </c>
       <c r="E21" t="n">
-        <v>0.185161800317722</v>
+        <v>0.1363955085894884</v>
       </c>
       <c r="F21" t="n">
-        <v>38.06809768620055</v>
+        <v>-46.25561378295989</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1058,13 +1062,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.238101690852167</v>
+        <v>5.728775389735374</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4987626983068664</v>
+        <v>0.2314680641177381</v>
       </c>
       <c r="F22" t="n">
-        <v>4.487307688505533</v>
+        <v>24.74974425336441</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1087,19 +1091,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.2488412905035065</v>
+        <v>-0.3244462063753752</v>
       </c>
       <c r="E23" t="n">
-        <v>0.096119555316033</v>
+        <v>0.5604522951061498</v>
       </c>
       <c r="F23" t="n">
-        <v>2.588872677212637</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.5789006650671759</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-19.24839338604749</v>
+        <v>-11.80393886811368</v>
       </c>
       <c r="E2" t="n">
-        <v>255.4600832845937</v>
+        <v>137.0205682703153</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07534794923167676</v>
+        <v>-0.08614720415424619</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21.85518837347206</v>
+        <v>17.52830033747577</v>
       </c>
       <c r="E3" t="n">
-        <v>314.2452700056139</v>
+        <v>149.9688980170549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06954818563563939</v>
+        <v>0.1168795701591566</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-23.90731385095948</v>
+        <v>-26.85593029435407</v>
       </c>
       <c r="E4" t="n">
-        <v>343.4529989880829</v>
+        <v>46.83693571952441</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06960869149897569</v>
+        <v>-0.5733921291345054</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.9780456636835116</v>
+        <v>8.3510646757204</v>
       </c>
       <c r="E5" t="n">
-        <v>58.78877810987745</v>
+        <v>40.06916752100188</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01663660472506375</v>
+        <v>0.2084162260506977</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-47.83782891129453</v>
+        <v>-43.82200722916857</v>
       </c>
       <c r="E6" t="n">
-        <v>235.4671132471947</v>
+        <v>89.68176830937891</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2031614022509976</v>
+        <v>-0.4886389737320296</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-16.12492755023208</v>
+        <v>-18.84642029034508</v>
       </c>
       <c r="E7" t="n">
-        <v>147.6200893111959</v>
+        <v>87.33486472610132</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1092326093655135</v>
+        <v>-0.2157949216438478</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-51.49469345640384</v>
+        <v>-73.5499352123791</v>
       </c>
       <c r="E8" t="n">
-        <v>67.44913102706379</v>
+        <v>59.94103516841629</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7634597017379177</v>
+        <v>-1.22703812180964</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1342,19 +1342,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-53.80262213920951</v>
+        <v>-45.15872139924772</v>
       </c>
       <c r="E9" t="n">
-        <v>7.115836265512068</v>
+        <v>47.63021329562432</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.560969664236334</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.9481108371059164</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1371,13 +1367,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25.41692095811637</v>
+        <v>18.29490476964088</v>
       </c>
       <c r="E10" t="n">
-        <v>277.4510857066604</v>
+        <v>73.69817522220659</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09160865560637532</v>
+        <v>0.2482409464614302</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1396,13 +1392,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15.91065585952858</v>
+        <v>14.73345028996536</v>
       </c>
       <c r="E11" t="n">
-        <v>146.8357383914307</v>
+        <v>106.4923577869523</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1083568348811267</v>
+        <v>0.1383521841017078</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1421,13 +1417,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-101.4953633188836</v>
+        <v>-64.0324007142996</v>
       </c>
       <c r="E12" t="n">
-        <v>321.6871007617783</v>
+        <v>140.0081666985045</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3155095839358658</v>
+        <v>-0.4573476121017131</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1446,13 +1442,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-18.26077946232793</v>
+        <v>8.984616700016153</v>
       </c>
       <c r="E13" t="n">
-        <v>935.806007371027</v>
+        <v>255.071148359128</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01951342406278006</v>
+        <v>0.03522396303076285</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1471,13 +1467,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.246643505082085</v>
+        <v>2.783802787704689</v>
       </c>
       <c r="E14" t="n">
-        <v>314.8839496949434</v>
+        <v>504.231680011512</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0293652423822813</v>
+        <v>0.005520880377133648</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1496,13 +1492,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10.69373933841654</v>
+        <v>-14.79067774480425</v>
       </c>
       <c r="E15" t="n">
-        <v>301.0723674730415</v>
+        <v>199.9825031600154</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03551883365508153</v>
+        <v>-0.07395985904311606</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1521,13 +1517,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5.898228994357018</v>
+        <v>-21.24430091888449</v>
       </c>
       <c r="E16" t="n">
-        <v>32.95759042103037</v>
+        <v>29.14129586190726</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1789642057871238</v>
+        <v>-0.7290101654900832</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1546,13 +1542,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-13.52866813986298</v>
+        <v>10.8623352599073</v>
       </c>
       <c r="E17" t="n">
-        <v>292.1216431672495</v>
+        <v>233.8828934806793</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04631176243287584</v>
+        <v>0.04644347903453922</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1571,13 +1567,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-2.488490355455598</v>
+        <v>4.342855120714145</v>
       </c>
       <c r="E18" t="n">
-        <v>718.5533025818635</v>
+        <v>379.594658730536</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.003463195209755631</v>
+        <v>0.01144076983390069</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1596,13 +1592,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-1.223048546127743</v>
+        <v>30.0350398197333</v>
       </c>
       <c r="E19" t="n">
-        <v>290.7934902946293</v>
+        <v>118.6215352597706</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.004205900705990914</v>
+        <v>0.2532005655967886</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1621,13 +1617,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-37.20499673702589</v>
+        <v>32.89338125542916</v>
       </c>
       <c r="E20" t="n">
-        <v>433.9510287589944</v>
+        <v>103.131289373893</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.08573547306345626</v>
+        <v>0.3189466693873791</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1646,13 +1642,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30.4028447009938</v>
+        <v>-15.61923440456725</v>
       </c>
       <c r="E21" t="n">
-        <v>408.5101028340777</v>
+        <v>40.12156256784499</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0744237278100864</v>
+        <v>-0.3892977592324662</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1671,13 +1667,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13.67016760718114</v>
+        <v>5.029171193237967</v>
       </c>
       <c r="E22" t="n">
-        <v>946.7829242215388</v>
+        <v>116.8599683907975</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0144385447365572</v>
+        <v>0.04303587672058625</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1696,13 +1692,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1.143734665902526</v>
+        <v>4.226050311168678</v>
       </c>
       <c r="E23" t="n">
-        <v>96.98334923246664</v>
+        <v>63.71838856044759</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01179310340335868</v>
+        <v>0.06632387300817502</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1717,7 +1713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1781,6 +1777,36 @@
           <t>p_10</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>L_singleProd</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>L_multiProd</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>L_merger</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_before</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_merger</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Change_welfare</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1790,34 +1816,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.80145968941793</v>
+        <v>-6.792868279796134</v>
       </c>
       <c r="D2" t="n">
-        <v>3.385877753704874</v>
+        <v>2.968226985097965</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1233171808336947</v>
+        <v>0.1533924242197283</v>
       </c>
       <c r="F2" t="n">
-        <v>0.521388533150416</v>
+        <v>0.5654449776479387</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2773278023310828</v>
+        <v>0.243043009227092</v>
       </c>
       <c r="H2" t="n">
-        <v>1.268341775647306</v>
+        <v>1.228000694232402</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08257260375036808</v>
+        <v>0.1605446561633072</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9764939903042644</v>
+        <v>1.109367870003665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06628435514364962</v>
+        <v>0.1502452549576213</v>
       </c>
       <c r="L2" t="n">
-        <v>0.262908973374664</v>
+        <v>0.3963819020827562</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1472132181591502</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.3384851114895378</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2012960943939625</v>
+      </c>
+      <c r="P2" t="n">
+        <v>477.3012087299534</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>235.0943149899948</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
     <row r="3">
@@ -1828,34 +1872,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.027077896335243</v>
+        <v>0.8606990056125187</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.248943188026836</v>
+        <v>-3.005477350648134</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04930610906890424</v>
+        <v>0.06612994832406377</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4272150752822428</v>
+        <v>0.3865901355558364</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1643628113972125</v>
+        <v>0.09292391434580939</v>
       </c>
       <c r="H3" t="n">
-        <v>0.681557320465794</v>
+        <v>0.6443844008877176</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06507149096757403</v>
+        <v>0.06921339088152065</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7377130259916301</v>
+        <v>0.7729700251028232</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03249000906682634</v>
+        <v>0.06484182226690764</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2001683682936505</v>
+        <v>0.1760810346317049</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3327258479536866</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4320702847023251</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2285960126356106</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2101.131193825527</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>818.4273522001187</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
     <row r="4">
@@ -1866,34 +1928,52 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.507584679410749</v>
+        <v>11.23875932868578</v>
       </c>
       <c r="D4" t="n">
-        <v>5.941401882945912</v>
+        <v>16.70930749481295</v>
       </c>
       <c r="E4" t="n">
-        <v>-32.96617937607951</v>
+        <v>-109.7691366047268</v>
       </c>
       <c r="F4" t="n">
-        <v>3.479403953543899</v>
+        <v>10.32786919262415</v>
       </c>
       <c r="G4" t="n">
-        <v>4.213279023381082</v>
+        <v>10.05351721597333</v>
       </c>
       <c r="H4" t="n">
-        <v>3.684830282321145</v>
+        <v>12.65022366859765</v>
       </c>
       <c r="I4" t="n">
-        <v>2.393122542899437</v>
+        <v>10.40745437482997</v>
       </c>
       <c r="J4" t="n">
-        <v>2.673276108668302</v>
+        <v>11.10762515623928</v>
       </c>
       <c r="K4" t="n">
-        <v>1.765929397163644</v>
+        <v>9.739783535010011</v>
       </c>
       <c r="L4" t="n">
-        <v>1.79272989731642</v>
+        <v>9.614435464791216</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.009110028838078143</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1095366905739064</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1422288979862351</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.108133545194524</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.841652495296314</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
     <row r="5">
@@ -1904,34 +1984,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.362624806666713</v>
+        <v>1.443819270441364</v>
       </c>
       <c r="D5" t="n">
-        <v>3.680690293929686</v>
+        <v>3.404231288437026</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2487707764718496</v>
+        <v>0.3599305845347798</v>
       </c>
       <c r="F5" t="n">
-        <v>-9.732327118611117</v>
+        <v>-9.417522541088163</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3817303250197221</v>
+        <v>0.4705380081321187</v>
       </c>
       <c r="H5" t="n">
-        <v>1.686314284154393</v>
+        <v>1.372063944056962</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2528313841443401</v>
+        <v>0.3767130758297416</v>
       </c>
       <c r="J5" t="n">
-        <v>1.531921749278427</v>
+        <v>1.277457307946456</v>
       </c>
       <c r="K5" t="n">
-        <v>0.188989940884774</v>
+        <v>0.3525488241548634</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6466372807470631</v>
+        <v>0.6330671100195179</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1061850391795774</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1278231059114202</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1602582984659528</v>
+      </c>
+      <c r="P5" t="n">
+        <v>70.58945787438465</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>91.91996791970001</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
     <row r="6">
@@ -1942,34 +2040,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.521655322770771</v>
+        <v>5.277289060502973</v>
       </c>
       <c r="D6" t="n">
-        <v>4.926786764485637</v>
+        <v>6.958266418046817</v>
       </c>
       <c r="E6" t="n">
-        <v>1.048074678454061</v>
+        <v>2.979417163137921</v>
       </c>
       <c r="F6" t="n">
-        <v>1.328110347607805</v>
+        <v>4.001289514327294</v>
       </c>
       <c r="G6" t="n">
-        <v>-15.8686206600954</v>
+        <v>-39.22948822269752</v>
       </c>
       <c r="H6" t="n">
-        <v>1.614490158587763</v>
+        <v>4.849087237421902</v>
       </c>
       <c r="I6" t="n">
-        <v>0.556830564088025</v>
+        <v>3.118338512844979</v>
       </c>
       <c r="J6" t="n">
-        <v>1.668780444568339</v>
+        <v>4.142832339552339</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4907324051857581</v>
+        <v>2.918287175787944</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7051924103023394</v>
+        <v>3.120910877149336</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.02549102844072835</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0545733302207492</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1386258906971115</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.544097578522099</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9.881106932001201</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
     <row r="7">
@@ -1980,34 +2096,52 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.749007040851829</v>
+        <v>1.562856449918811</v>
       </c>
       <c r="D7" t="n">
-        <v>3.098314778430554</v>
+        <v>2.828207720819805</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1390120487418915</v>
+        <v>0.2197375213720888</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8897724691840221</v>
+        <v>0.6838680999806818</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2448490080353908</v>
+        <v>0.2842187500407254</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.039718420546455</v>
+        <v>-8.496907218667888</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1551445968824474</v>
+        <v>0.2299832276222816</v>
       </c>
       <c r="J7" t="n">
-        <v>1.195059440860454</v>
+        <v>1.002922618344747</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09195560646437664</v>
+        <v>0.2152290270983337</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4626337859000305</v>
+        <v>0.5590540415690076</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1176898810667226</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1298031012803134</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1448989790442956</v>
+      </c>
+      <c r="P7" t="n">
+        <v>143.8194273689847</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>163.3796337159805</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
     <row r="8">
@@ -2018,34 +2152,52 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.653611596408269</v>
+        <v>11.23875932868578</v>
       </c>
       <c r="D8" t="n">
-        <v>6.893821368191414</v>
+        <v>16.70930749481295</v>
       </c>
       <c r="E8" t="n">
-        <v>2.104001322335326</v>
+        <v>9.94380438852783</v>
       </c>
       <c r="F8" t="n">
-        <v>3.108977247863688</v>
+        <v>10.32786919262415</v>
       </c>
       <c r="G8" t="n">
-        <v>1.968031877266824</v>
+        <v>10.05351721597333</v>
       </c>
       <c r="H8" t="n">
-        <v>3.615619930409436</v>
+        <v>12.65022366859765</v>
       </c>
       <c r="I8" t="n">
-        <v>-32.43745247633726</v>
+        <v>-114.8873445555887</v>
       </c>
       <c r="J8" t="n">
-        <v>3.991569965650621</v>
+        <v>11.10762515623928</v>
       </c>
       <c r="K8" t="n">
-        <v>1.533704115613223</v>
+        <v>9.739783535010011</v>
       </c>
       <c r="L8" t="n">
-        <v>2.458178656959681</v>
+        <v>9.614435464791216</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.008704178896885774</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02273493786738164</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1261443800330398</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.4579564903019819</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.841652988313669</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
     <row r="9">
@@ -2056,34 +2208,52 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1.484551795393164</v>
+        <v>1.294500990403155</v>
       </c>
       <c r="D9" t="n">
-        <v>3.697269624271357</v>
+        <v>3.110536230341676</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1111857910796091</v>
+        <v>0.1769023323631326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8911433001102285</v>
+        <v>0.5837820209430709</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2790182868116648</v>
+        <v>0.22263652359096</v>
       </c>
       <c r="H9" t="n">
-        <v>1.317528523678067</v>
+        <v>0.9195466197496708</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1888287633029031</v>
+        <v>0.1851507613116757</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.251534792330911</v>
+        <v>-6.919777626703471</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09964338083301287</v>
+        <v>0.1732733587901803</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4639047235711647</v>
+        <v>0.4892689895402616</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1445133144367231</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1451216274897719</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.1646206406040371</v>
+      </c>
+      <c r="P9" t="n">
+        <v>175.3712106841346</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>203.5780906780948</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
     <row r="10">
@@ -2094,34 +2264,52 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>6.645168336997372</v>
+        <v>11.23681156849563</v>
       </c>
       <c r="D10" t="n">
-        <v>10.73773483820712</v>
+        <v>16.72412298087578</v>
       </c>
       <c r="E10" t="n">
-        <v>4.843373724484188</v>
+        <v>9.942078273360332</v>
       </c>
       <c r="F10" t="n">
-        <v>7.249679798328283</v>
+        <v>10.32616643619198</v>
       </c>
       <c r="G10" t="n">
-        <v>5.410624254119163</v>
+        <v>10.05177156980171</v>
       </c>
       <c r="H10" t="n">
-        <v>6.685253866666145</v>
+        <v>12.6480245128186</v>
       </c>
       <c r="I10" t="n">
-        <v>4.784484560588228</v>
+        <v>10.40564777605253</v>
       </c>
       <c r="J10" t="n">
-        <v>6.570790585737295</v>
+        <v>11.10573544230987</v>
       </c>
       <c r="K10" t="n">
-        <v>-60.6501055535936</v>
+        <v>-107.5184764817393</v>
       </c>
       <c r="L10" t="n">
-        <v>4.295765588221689</v>
+        <v>9.613127638128743</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.009300727025925054</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01537925230662949</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.132770474713996</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.28996518181803</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.842150465303424</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
     <row r="11">
@@ -2132,34 +2320,52 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1.964259060757683</v>
+        <v>2.309184952103235</v>
       </c>
       <c r="D11" t="n">
-        <v>4.930110982397275</v>
+        <v>3.537555732363368</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3664273743899298</v>
+        <v>0.7644590563465049</v>
       </c>
       <c r="F11" t="n">
-        <v>1.848584383283125</v>
+        <v>1.444349080952626</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5794402659735444</v>
+        <v>0.8373336005053164</v>
       </c>
       <c r="H11" t="n">
-        <v>2.506544625770668</v>
+        <v>2.559046725742269</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5714857719253771</v>
+        <v>0.8001035056090549</v>
       </c>
       <c r="J11" t="n">
-        <v>2.279798012561749</v>
+        <v>2.442675566991585</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3201392911667539</v>
+        <v>0.7488024848473978</v>
       </c>
       <c r="L11" t="n">
-        <v>-14.96304873181055</v>
+        <v>-14.87839710592903</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.06721154119495178</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.06798555080501323</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.151484600820677</v>
+      </c>
+      <c r="P11" t="n">
+        <v>16.45601530368043</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>40.27536322726892</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-4133.602500098316</v>
       </c>
     </row>
   </sheetData>
